--- a/testdata/out_direct.xlsx
+++ b/testdata/out_direct.xlsx
@@ -36,13 +36,13 @@
     <ma:t>其中：私教课</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-07</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-06</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-05</ma:t>
+    <ma:t>2020-04-10</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-04-09</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-04-08</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>订单日期</ma:t>
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:C3"/>
+  <ma:dimension ref="A1:C8"/>
   <ma:sheetData>
     <ma:row r="1">
       <ma:c r="A1" t="s">
@@ -128,6 +128,61 @@
       </ma:c>
       <ma:c r="C3" t="n">
         <ma:v>140</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="4">
+      <ma:c r="A4" t="n">
+        <ma:v>300</ma:v>
+      </ma:c>
+      <ma:c r="B4" t="n">
+        <ma:v>70</ma:v>
+      </ma:c>
+      <ma:c r="C4" t="n">
+        <ma:v>150</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="5">
+      <ma:c r="A5" t="n">
+        <ma:v>400</ma:v>
+      </ma:c>
+      <ma:c r="B5" t="n">
+        <ma:v>80</ma:v>
+      </ma:c>
+      <ma:c r="C5" t="n">
+        <ma:v>160</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="6">
+      <ma:c r="A6" t="n">
+        <ma:v>500</ma:v>
+      </ma:c>
+      <ma:c r="B6" t="n">
+        <ma:v>90</ma:v>
+      </ma:c>
+      <ma:c r="C6" t="n">
+        <ma:v>180</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="7">
+      <ma:c r="A7" t="n">
+        <ma:v>600</ma:v>
+      </ma:c>
+      <ma:c r="B7" t="n">
+        <ma:v>96</ma:v>
+      </ma:c>
+      <ma:c r="C7" t="n">
+        <ma:v>186</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="8">
+      <ma:c r="A8" t="n">
+        <ma:v>700</ma:v>
+      </ma:c>
+      <ma:c r="B8" t="n">
+        <ma:v>97</ma:v>
+      </ma:c>
+      <ma:c r="C8" t="n">
+        <ma:v>187</ma:v>
       </ma:c>
     </ma:row>
   </ma:sheetData>
@@ -212,7 +267,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:C1"/>
+  <ma:dimension ref="A1:C2"/>
   <ma:sheetData>
     <ma:row r="1">
       <ma:c r="A1" t="s">
@@ -225,6 +280,17 @@
         <ma:v>13</ma:v>
       </ma:c>
     </ma:row>
+    <ma:row r="2">
+      <ma:c r="A2" t="s">
+        <ma:v>8</ma:v>
+      </ma:c>
+      <ma:c r="B2" t="n">
+        <ma:v>10</ma:v>
+      </ma:c>
+      <ma:c r="C2" t="n">
+        <ma:v>20</ma:v>
+      </ma:c>
+    </ma:row>
   </ma:sheetData>
 </ma:worksheet>
 </file>
--- a/testdata/out_direct.xlsx
+++ b/testdata/out_direct.xlsx
@@ -36,13 +36,13 @@
     <ma:t>其中：私教课</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-10</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-09</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-08</ma:t>
+    <ma:t>2020-08-24</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-08-23</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-08-22</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>订单日期</ma:t>

--- a/testdata/out_direct.xlsx
+++ b/testdata/out_direct.xlsx
@@ -36,13 +36,13 @@
     <ma:t>其中：私教课</ma:t>
   </ma:si>
   <ma:si>
+    <ma:t>2020-08-25</ma:t>
+  </ma:si>
+  <ma:si>
     <ma:t>2020-08-24</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>2020-08-23</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-08-22</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>订单日期</ma:t>
